--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>Timestamp</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>1-2 releases in the past 12 months (medium)</t>
+  </si>
+  <si>
+    <t>SophieBot</t>
+  </si>
+  <si>
+    <t>Between 100 and 1000 unique daily users (Scaling)</t>
+  </si>
+  <si>
+    <t>Between 1000 and 10000 (Scaling)</t>
+  </si>
+  <si>
+    <t>Less than 25,000 USD (Pilot)</t>
+  </si>
+  <si>
+    <t>Under 50,000 USD (Pilot)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +203,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -321,10 +336,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -332,27 +347,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -404,12 +405,6 @@
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA5" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA6" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="27">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="What is the name of the solution" id="2"/>
@@ -1046,73 +1041,141 @@
       <c r="AA4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>45552.66500894676</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="13" t="s">
+      <c r="O5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
+      <c r="Y5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>45559.35849856482</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>Under 50,000 USD (Pilot)</t>
+  </si>
+  <si>
+    <t>Iyewo</t>
+  </si>
+  <si>
+    <t>Less than 1000 (Pilot)</t>
+  </si>
+  <si>
+    <t>Dispensary by Famasi Africa</t>
+  </si>
+  <si>
+    <t>Over 250,000 USD (Mature)</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -359,11 +371,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -400,10 +426,28 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -464,7 +508,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA6" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA8" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="27">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="What is the name of the solution" id="2"/>
@@ -1177,6 +1221,148 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="14">
+        <v>45562.44997436342</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17">
+        <v>45562.452919351854</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="65">
   <si>
     <t>Timestamp</t>
   </si>
@@ -185,6 +185,27 @@
   </si>
   <si>
     <t>Over 250,000 USD (Mature)</t>
+  </si>
+  <si>
+    <t>TanzMED</t>
+  </si>
+  <si>
+    <t>Greater than 10000 (Mature)</t>
+  </si>
+  <si>
+    <t>Between 25,000 and 150,000 USD (Scaling)</t>
+  </si>
+  <si>
+    <t>Between 50,000 and 250,000 USD (Scaling)</t>
+  </si>
+  <si>
+    <t>MedPack Business</t>
+  </si>
+  <si>
+    <t>Greater than 150,000 USD (Mature)</t>
+  </si>
+  <si>
+    <t>Dentolize</t>
   </si>
 </sst>
 </file>
@@ -348,10 +369,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -359,13 +380,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -373,13 +394,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -389,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,6 +460,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -508,7 +532,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA8" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA11" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="27">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="What is the name of the solution" id="2"/>
@@ -1296,70 +1320,313 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17">
+      <c r="A8" s="12">
         <v>45562.452919351854</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="18" t="s">
+      <c r="O8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="X8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="19" t="s">
+      <c r="Y8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14">
+        <v>45565.65449907407</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>45565.668647928236</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18">
+        <v>45565.68065550926</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="20" t="s">
         <v>28</v>
       </c>
     </row>

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="78">
   <si>
     <t>Timestamp</t>
   </si>
@@ -206,6 +206,45 @@
   </si>
   <si>
     <t>Dentolize</t>
+  </si>
+  <si>
+    <t>Yubreevi</t>
+  </si>
+  <si>
+    <t>Pass Sante Mousso</t>
+  </si>
+  <si>
+    <t>Doktorconnect</t>
+  </si>
+  <si>
+    <t>VieProcure</t>
+  </si>
+  <si>
+    <t>Young Africa Live</t>
+  </si>
+  <si>
+    <t>No current active development (low)</t>
+  </si>
+  <si>
+    <t>No releases in past 12 months (low)</t>
+  </si>
+  <si>
+    <t>MomConnect</t>
+  </si>
+  <si>
+    <t>Mpeke HMIS</t>
+  </si>
+  <si>
+    <t>HealthEdu</t>
+  </si>
+  <si>
+    <t>Kapsule</t>
+  </si>
+  <si>
+    <t>Prep Club</t>
+  </si>
+  <si>
+    <t>HealthX</t>
   </si>
 </sst>
 </file>
@@ -369,10 +408,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -380,13 +419,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -394,13 +433,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -532,7 +571,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA11" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA22" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="27">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="What is the name of the solution" id="2"/>
@@ -1548,85 +1587,986 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>45565.68065550926</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="19" t="s">
+      <c r="O11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="19" t="s">
+      <c r="T11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="19" t="s">
+      <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="19" t="s">
+      <c r="X11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA11" s="20" t="s">
+      <c r="Y11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>45567.705218703704</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14">
+        <v>45567.70903165509</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>45567.71343466435</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14">
+        <v>45567.71740275463</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>45567.719602418976</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14">
+        <v>45567.72413653936</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>45567.765433981476</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14">
+        <v>45567.767369560184</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>45567.77127673611</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14">
+        <v>45567.7732446875</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="18">
+        <v>45567.774976851855</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="20" t="s">
         <v>28</v>
       </c>
     </row>

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>HealthX</t>
+  </si>
+  <si>
+    <t>Lifesten Health</t>
+  </si>
+  <si>
+    <t>IMPALA System</t>
+  </si>
+  <si>
+    <t>Medpharma</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -419,13 +428,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -433,13 +442,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -571,7 +580,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA22" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA25" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="27">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="What is the name of the solution" id="2"/>
@@ -2491,82 +2500,331 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18">
+      <c r="A22" s="12">
         <v>45567.774976851855</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="19" t="s">
+      <c r="C22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="19" t="s">
+      <c r="O22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="X22" s="19" t="s">
+      <c r="X22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="20" t="s">
+      <c r="Y22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14">
+        <v>45568.33362450232</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>45568.360119074074</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="18">
+        <v>45568.454662511576</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA25" s="20" t="s">
         <v>28</v>
       </c>
     </row>

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="87">
   <si>
     <t>Timestamp</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>Medpharma</t>
+  </si>
+  <si>
+    <t>Alô Vida+</t>
+  </si>
+  <si>
+    <t>MedTrack</t>
+  </si>
+  <si>
+    <t>Spes 360</t>
+  </si>
+  <si>
+    <t>Aviro Pocket Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XanaHealth </t>
+  </si>
+  <si>
+    <t>BetaLife</t>
   </si>
 </sst>
 </file>
@@ -284,7 +302,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -440,25 +458,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -519,9 +523,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -580,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA25" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AA31" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="27">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="What is the name of the solution" id="2"/>
@@ -2746,86 +2747,542 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18">
+      <c r="A25" s="14">
         <v>45568.454662511576</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="19" t="s">
+      <c r="C25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="19" t="s">
+      <c r="O25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="19" t="s">
+      <c r="T25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="19" t="s">
+      <c r="V25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="19" t="s">
+      <c r="X25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Y25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA25" s="20" t="s">
-        <v>28</v>
+      <c r="Y25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>45569.53350535879</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14">
+        <v>45569.69487824074</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>45572.434264166666</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14">
+        <v>45572.626628275466</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>45572.63018476852</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA30" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="18">
+        <v>45572.63892673611</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C787CD7-3634-D74B-9EFA-52D8E09BA744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339EAB0B-79B5-C143-BF21-A2A47BA93852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2840" windowWidth="32420" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="78">
   <si>
     <t>Timestamp</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Afyalytics</t>
+  </si>
+  <si>
+    <t>The S+ Platform</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,6 +276,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,6 +481,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,11 +776,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2054,7 +2072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>45572.626628275466</v>
       </c>
@@ -2137,7 +2155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>45572.630184768517</v>
       </c>
@@ -2220,7 +2238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>45575.720922118053</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>45581.452085462966</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>45581.563527974533</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>45581.566317291668</v>
       </c>
@@ -2548,6 +2566,95 @@
       <c r="AA22" s="3" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>45587.669074074074</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utils/HealthVettedSolutions.xlsx
+++ b/utils/HealthVettedSolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339EAB0B-79B5-C143-BF21-A2A47BA93852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED234502-13A6-FD46-9EAC-C515A4F9EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2840" windowWidth="32420" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="4820" windowWidth="30100" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="80">
   <si>
     <t>Timestamp</t>
   </si>
@@ -211,6 +211,9 @@
     <t>Dentolize</t>
   </si>
   <si>
+    <t>Yubreevi</t>
+  </si>
+  <si>
     <t>Pass Sante Mousso</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>Kapsule</t>
   </si>
   <si>
+    <t>HealthX</t>
+  </si>
+  <si>
     <t>Lifesten Health</t>
   </si>
   <si>
@@ -250,7 +256,7 @@
     <t>E-Heza Data Solutions</t>
   </si>
   <si>
-    <t>Afyalytics</t>
+    <t>Open Health Information Mediator (OpenHIM) Platform</t>
   </si>
   <si>
     <t>The S+ Platform</t>
@@ -263,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -277,34 +283,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -447,12 +435,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -471,32 +513,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -524,9 +554,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -541,7 +571,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AA22" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AA25">
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="What is the name of the solution"/>
@@ -776,11 +806,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -810,699 +840,699 @@
     <col min="28" max="33" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>45551.803484525459</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>45552.658780416663</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="5" t="s">
+      <c r="O3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="6"/>
+      <c r="Y3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>45552.660753125005</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="O4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="3"/>
+      <c r="Y4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>45552.665008946758</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5" t="s">
+      <c r="O5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="6"/>
+      <c r="Y5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>45562.452919351854</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="2" t="s">
+      <c r="O6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="3" t="s">
+      <c r="Y6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>45565.654499074073</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="5" t="s">
+      <c r="O7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="6" t="s">
+      <c r="Y7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>45565.668647928236</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="2" t="s">
+      <c r="O8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="3" t="s">
+      <c r="Y8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>45565.680655509263</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="O9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="5" t="s">
+      <c r="T9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="6" t="s">
+      <c r="Y9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>45567.709031655089</v>
+        <v>45567.705218703704</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>63</v>
@@ -1532,31 +1562,31 @@
         <v>30</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>58</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>28</v>
@@ -1574,7 +1604,7 @@
         <v>42</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>28</v>
@@ -1584,85 +1614,91 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>45567.771276736108</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="A11" s="7">
+        <v>45567.709031655089</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="2" t="s">
+      <c r="K11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>35</v>
+      <c r="Y11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>45568.333624502317</v>
+        <v>45567.771276736108</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>66</v>
@@ -1679,9 +1715,6 @@
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1692,22 +1725,22 @@
         <v>30</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>35</v>
@@ -1715,203 +1748,197 @@
       <c r="R12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="T12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>45568.360119074074</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4">
+        <v>45567.774976851855</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="O13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="3" t="s">
+      <c r="X13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>45568.454662511576</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7">
+        <v>45568.333624502317</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="C14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="5" t="s">
+      <c r="K14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA14" s="6" t="s">
+      <c r="X14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>45569.694878240742</v>
+        <v>45568.360119074074</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>69</v>
@@ -1926,16 +1953,16 @@
         <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>30</v>
@@ -1947,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>55</v>
@@ -1955,23 +1982,26 @@
       <c r="O15" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="P15" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="Q15" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>37</v>
@@ -1980,681 +2010,841 @@
         <v>42</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
+        <v>45568.454662511576</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>45569.694878240742</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>45572.434264166666</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="2" t="s">
+      <c r="O18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" s="2" t="s">
+      <c r="T18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA16" s="3" t="s">
+      <c r="Y18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>45572.626628275466</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="5" t="s">
+      <c r="O19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="5" t="s">
+      <c r="T19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X17" s="5" t="s">
+      <c r="W19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Y17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="6" t="s">
+      <c r="Y19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA19" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>45572.630184768517</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="2" t="s">
+      <c r="O20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" s="2" t="s">
+      <c r="T20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="3" t="s">
+      <c r="Y20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>45575.720922118053</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="5" t="s">
+      <c r="O21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="X21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="6" t="s">
+      <c r="Y21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>45581.452085462966</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="2" t="s">
+      <c r="O22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="3" t="s">
+      <c r="Y22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>45581.563527974533</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="5" t="s">
+      <c r="O23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA21" s="6" t="s">
+      <c r="Y23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>45581.566317291668</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2" t="s">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>45581.569188159723</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>45587.669074039353</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" s="2" t="s">
+      <c r="J25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>45587.669074074074</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="12" t="s">
+      <c r="X25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
+      <c r="Y25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
